--- a/docs/Sprint Backlog.xlsx
+++ b/docs/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUÍS PEREIRA\GitHub\picand-go\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A13A29-340F-4B26-B75F-32A7418CE3A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A0F22-48D3-45F3-AF49-E2089C00B421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2749,7 +2749,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="352">
+  <dxfs count="355">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2777,3276 +2777,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6496,6 +3226,3306 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6591,19 +6621,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1198A39D-FAF6-4CC2-BC9B-BD1DFBB184C3}" name="Tabela_Requisitos" displayName="Tabela_Requisitos" ref="A2:J403" headerRowDxfId="351" dataDxfId="350">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1198A39D-FAF6-4CC2-BC9B-BD1DFBB184C3}" name="Tabela_Requisitos" displayName="Tabela_Requisitos" ref="A2:J403" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A2:J403" xr:uid="{FA7D6100-5CD1-494D-A60D-8E892EAEC05C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3FC58B53-8DA1-4447-BCED-3625FD40251E}" name="ID da Tarefa" totalsRowLabel="Total" dataDxfId="349" totalsRowDxfId="348"/>
-    <tableColumn id="2" xr3:uid="{1FECF677-DAA3-4088-BB5D-F7B8E4CC16B8}" name="Grupo" dataDxfId="347" totalsRowDxfId="346"/>
-    <tableColumn id="8" xr3:uid="{BD681F8D-38C2-42FE-BF1A-A787EC294115}" name="Requisito" dataDxfId="345" totalsRowDxfId="344"/>
-    <tableColumn id="3" xr3:uid="{BFBE8AC3-C050-4F78-8B7C-E36215B1671A}" name="Tarefa" dataDxfId="343" totalsRowDxfId="342"/>
-    <tableColumn id="6" xr3:uid="{61958D70-D070-4306-AFEA-16B3946C31DD}" name="Módulo" dataDxfId="341" totalsRowDxfId="340"/>
-    <tableColumn id="4" xr3:uid="{47565725-4927-48A7-90AA-0A8734EA4A8A}" name="Status" dataDxfId="339" totalsRowDxfId="338"/>
-    <tableColumn id="5" xr3:uid="{32A88ECC-C6F1-4077-B4ED-D92962146243}" name="Responsável" dataDxfId="337" totalsRowDxfId="336"/>
-    <tableColumn id="7" xr3:uid="{1E911A97-3917-4ACE-B36D-84BA008FE615}" name="Prioridade" totalsRowFunction="count" dataDxfId="335" totalsRowDxfId="334"/>
-    <tableColumn id="9" xr3:uid="{B4F2E4B0-1304-4B10-B312-0973D7A03289}" name="Horas" dataDxfId="333" totalsRowDxfId="332"/>
-    <tableColumn id="10" xr3:uid="{B5CDF426-D23F-4C32-8CD1-73ACEEE98C09}" name="Data" dataDxfId="331" totalsRowDxfId="330"/>
+    <tableColumn id="1" xr3:uid="{3FC58B53-8DA1-4447-BCED-3625FD40251E}" name="ID da Tarefa" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{1FECF677-DAA3-4088-BB5D-F7B8E4CC16B8}" name="Grupo" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{BD681F8D-38C2-42FE-BF1A-A787EC294115}" name="Requisito" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{BFBE8AC3-C050-4F78-8B7C-E36215B1671A}" name="Tarefa" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{61958D70-D070-4306-AFEA-16B3946C31DD}" name="Módulo" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{47565725-4927-48A7-90AA-0A8734EA4A8A}" name="Status" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{32A88ECC-C6F1-4077-B4ED-D92962146243}" name="Responsável" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1E911A97-3917-4ACE-B36D-84BA008FE615}" name="Prioridade" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B4F2E4B0-1304-4B10-B312-0973D7A03289}" name="Horas" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{B5CDF426-D23F-4C32-8CD1-73ACEEE98C09}" name="Data" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6908,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925233BC-DEF4-4153-A45F-C1645D7758F5}">
   <dimension ref="A1:J407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13769,7 +13799,7 @@
         <v>527</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>821</v>
@@ -18095,40 +18125,40 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H3:J18 H39:J55 H20:J37 H78:J83 H85:J111 H113:J145 H149:J178 H180:J188 H190:J202 H204:J217 H219:J267">
-    <cfRule type="cellIs" dxfId="329" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="496" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="501" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="502" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:J19">
-    <cfRule type="cellIs" dxfId="326" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="487" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="488" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="489" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:J38">
-    <cfRule type="cellIs" dxfId="323" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="484" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="485" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="486" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L5">
-    <cfRule type="iconSet" priority="475">
+    <cfRule type="iconSet" priority="478">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18137,7 +18167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="iconSet" priority="474">
+    <cfRule type="iconSet" priority="477">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18146,7 +18176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M6">
-    <cfRule type="iconSet" priority="500">
+    <cfRule type="iconSet" priority="503">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18155,7 +18185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M4">
-    <cfRule type="iconSet" priority="466">
+    <cfRule type="iconSet" priority="469">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18164,25 +18194,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:J58">
-    <cfRule type="cellIs" dxfId="320" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="465" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="466" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="467" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="iconSet" priority="460">
+    <cfRule type="iconSet" priority="463">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="461">
+    <cfRule type="iconSet" priority="464">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18191,25 +18221,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:J56">
-    <cfRule type="cellIs" dxfId="317" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="439" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="440" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="441" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="iconSet" priority="453">
+    <cfRule type="iconSet" priority="456">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="454">
+    <cfRule type="iconSet" priority="457">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18218,36 +18248,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:J57">
-    <cfRule type="cellIs" dxfId="314" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="450" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="451" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="452" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:J83 H85:J108">
-    <cfRule type="cellIs" dxfId="311" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="447" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="448" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="449" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="iconSet" priority="442">
+    <cfRule type="iconSet" priority="445">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="443">
+    <cfRule type="iconSet" priority="446">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18256,25 +18286,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84:J84">
-    <cfRule type="cellIs" dxfId="308" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="436" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="437" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="438" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="iconSet" priority="431">
+    <cfRule type="iconSet" priority="434">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="432">
+    <cfRule type="iconSet" priority="435">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18283,14 +18313,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:F83">
-    <cfRule type="iconSet" priority="429">
+    <cfRule type="iconSet" priority="432">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="430">
+    <cfRule type="iconSet" priority="433">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18299,14 +18329,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F57 F59:F83 F85:F111">
-    <cfRule type="iconSet" priority="519">
+    <cfRule type="iconSet" priority="522">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="520">
+    <cfRule type="iconSet" priority="523">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18315,14 +18345,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F111">
-    <cfRule type="iconSet" priority="529">
+    <cfRule type="iconSet" priority="532">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="530">
+    <cfRule type="iconSet" priority="533">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18331,25 +18361,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112:J112">
-    <cfRule type="cellIs" dxfId="305" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="419" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="420" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="421" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F112">
-    <cfRule type="iconSet" priority="414">
+    <cfRule type="iconSet" priority="417">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="415">
+    <cfRule type="iconSet" priority="418">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18358,14 +18388,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F113:F145">
-    <cfRule type="iconSet" priority="539">
+    <cfRule type="iconSet" priority="542">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="540">
+    <cfRule type="iconSet" priority="543">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18374,25 +18404,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146:J146">
-    <cfRule type="cellIs" dxfId="302" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="394" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="395" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="396" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="iconSet" priority="389">
+    <cfRule type="iconSet" priority="392">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="390">
+    <cfRule type="iconSet" priority="393">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18401,47 +18431,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147:J147">
-    <cfRule type="cellIs" dxfId="299" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="389" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="390" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="391" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148:J148">
-    <cfRule type="cellIs" dxfId="296" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="386" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="387" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="388" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179:J179">
-    <cfRule type="cellIs" dxfId="293" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="383" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="384" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="385" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="iconSet" priority="378">
+    <cfRule type="iconSet" priority="381">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="379">
+    <cfRule type="iconSet" priority="382">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18450,14 +18480,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F149">
-    <cfRule type="iconSet" priority="376">
+    <cfRule type="iconSet" priority="379">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="377">
+    <cfRule type="iconSet" priority="380">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18466,14 +18496,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150:F158">
-    <cfRule type="iconSet" priority="374">
+    <cfRule type="iconSet" priority="377">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="375">
+    <cfRule type="iconSet" priority="378">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18482,14 +18512,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F159:F167">
-    <cfRule type="iconSet" priority="372">
+    <cfRule type="iconSet" priority="375">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="373">
+    <cfRule type="iconSet" priority="376">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18498,14 +18528,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F168">
-    <cfRule type="iconSet" priority="370">
+    <cfRule type="iconSet" priority="373">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="371">
+    <cfRule type="iconSet" priority="374">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18514,14 +18544,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="iconSet" priority="368">
+    <cfRule type="iconSet" priority="371">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="369">
+    <cfRule type="iconSet" priority="372">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18530,14 +18560,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F170">
-    <cfRule type="iconSet" priority="366">
+    <cfRule type="iconSet" priority="369">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="367">
+    <cfRule type="iconSet" priority="370">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18546,14 +18576,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="iconSet" priority="364">
+    <cfRule type="iconSet" priority="367">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="365">
+    <cfRule type="iconSet" priority="368">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18562,14 +18592,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174:F178">
-    <cfRule type="iconSet" priority="362">
+    <cfRule type="iconSet" priority="365">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="363">
+    <cfRule type="iconSet" priority="366">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18578,14 +18608,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="iconSet" priority="360">
+    <cfRule type="iconSet" priority="363">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="361">
+    <cfRule type="iconSet" priority="364">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18594,14 +18624,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F169">
-    <cfRule type="iconSet" priority="358">
+    <cfRule type="iconSet" priority="361">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="359">
+    <cfRule type="iconSet" priority="362">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18610,14 +18640,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="iconSet" priority="356">
+    <cfRule type="iconSet" priority="359">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="357">
+    <cfRule type="iconSet" priority="360">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18626,36 +18656,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189:J189">
-    <cfRule type="cellIs" dxfId="290" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="356" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="357" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="358" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H203:J203">
-    <cfRule type="cellIs" dxfId="287" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="353" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="354" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="355" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F180:F217 F219:F267">
-    <cfRule type="iconSet" priority="579">
+    <cfRule type="iconSet" priority="582">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="580">
+    <cfRule type="iconSet" priority="583">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18664,234 +18694,234 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B9 B262:B267 B382:B398 C20:C37 C85:C111 C113:C145 C147:C178 C180:C217 C4:C18 C39:C57 C59:C83 C219:C267 C332:C364 C269:C330 C366:C403">
-    <cfRule type="containsText" dxfId="284" priority="347" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="309" priority="350" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="348" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="308" priority="351" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="349" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="307" priority="352" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B37">
-    <cfRule type="containsText" dxfId="281" priority="341" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="306" priority="344" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="342" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="305" priority="345" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="343" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="304" priority="346" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B54">
-    <cfRule type="containsText" dxfId="278" priority="338" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="303" priority="341" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="339" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="302" priority="342" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="340" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="301" priority="343" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B82">
-    <cfRule type="containsText" dxfId="275" priority="335" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="300" priority="338" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="336" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="299" priority="339" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="337" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="298" priority="340" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B111">
-    <cfRule type="containsText" dxfId="272" priority="332" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="297" priority="335" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="333" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="296" priority="336" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="334" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="295" priority="337" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:B145">
-    <cfRule type="containsText" dxfId="269" priority="329" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="294" priority="332" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="330" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="293" priority="333" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="331" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="292" priority="334" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147:B178">
-    <cfRule type="containsText" dxfId="266" priority="326" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="291" priority="329" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="327" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="290" priority="330" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="328" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="289" priority="331" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B180:B217">
-    <cfRule type="containsText" dxfId="263" priority="323" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="288" priority="326" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="324" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="287" priority="327" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="325" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="286" priority="328" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="260" priority="299" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="285" priority="302" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="300" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="284" priority="303" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="301" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="283" priority="304" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="257" priority="314" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="282" priority="317" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="315" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="281" priority="318" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="316" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="280" priority="319" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="254" priority="311" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="279" priority="314" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="312" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="278" priority="315" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="313" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="277" priority="316" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="251" priority="308" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="276" priority="311" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="309" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="275" priority="312" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="310" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="274" priority="313" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="248" priority="305" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="273" priority="308" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="306" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="272" priority="309" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="307" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="271" priority="310" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="245" priority="302" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="270" priority="305" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="303" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="269" priority="306" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="304" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="268" priority="307" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B14">
-    <cfRule type="containsText" dxfId="242" priority="293" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="267" priority="296" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="294" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="266" priority="297" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="295" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="265" priority="298" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="containsText" dxfId="239" priority="290" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="264" priority="293" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="291" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="263" priority="294" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="292" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="262" priority="295" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="containsText" dxfId="236" priority="287" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="261" priority="290" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="288" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="260" priority="291" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="289" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="259" priority="292" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="233" priority="284" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="258" priority="287" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="285" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="257" priority="288" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="286" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="256" priority="289" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="containsText" dxfId="230" priority="281" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="255" priority="284" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="282" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="254" priority="285" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="283" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="253" priority="286" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H218:J218">
-    <cfRule type="cellIs" dxfId="227" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="278" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="279" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="280" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F218">
-    <cfRule type="iconSet" priority="273">
+    <cfRule type="iconSet" priority="276">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="274">
+    <cfRule type="iconSet" priority="277">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18900,25 +18930,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H268:J268">
-    <cfRule type="cellIs" dxfId="224" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="273" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="274" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="275" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F268">
-    <cfRule type="iconSet" priority="268">
+    <cfRule type="iconSet" priority="271">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="269">
+    <cfRule type="iconSet" priority="272">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -18927,575 +18957,575 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="221" priority="265" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="246" priority="268" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="266" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="245" priority="269" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="267" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="244" priority="270" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B220">
-    <cfRule type="containsText" dxfId="218" priority="262" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="243" priority="265" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B220)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="263" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="242" priority="266" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B220)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="264" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="241" priority="267" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221">
-    <cfRule type="containsText" dxfId="215" priority="259" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="240" priority="262" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="260" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="239" priority="263" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B221)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="261" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="238" priority="264" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B221)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B222">
-    <cfRule type="containsText" dxfId="212" priority="256" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="237" priority="259" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="257" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="236" priority="260" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B222)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="258" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="235" priority="261" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B222)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B223">
-    <cfRule type="containsText" dxfId="209" priority="253" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="234" priority="256" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="254" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="233" priority="257" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="255" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="232" priority="258" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B224:B228">
-    <cfRule type="containsText" dxfId="206" priority="250" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="231" priority="253" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="251" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="230" priority="254" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B224)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="252" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="229" priority="255" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B224)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B229">
-    <cfRule type="containsText" dxfId="203" priority="247" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="228" priority="250" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="248" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="227" priority="251" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="249" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="226" priority="252" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B230:B232 B235:B236">
-    <cfRule type="containsText" dxfId="200" priority="241" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="225" priority="244" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B230)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="242" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="224" priority="245" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B230)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="243" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="223" priority="246" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B230)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253">
-    <cfRule type="containsText" dxfId="197" priority="235" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="222" priority="238" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="236" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="221" priority="239" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="237" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="220" priority="240" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B261">
-    <cfRule type="containsText" dxfId="194" priority="232" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="219" priority="235" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="233" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="218" priority="236" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="234" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="217" priority="237" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B260">
-    <cfRule type="containsText" dxfId="191" priority="229" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="216" priority="232" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="230" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="215" priority="233" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B260)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="231" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="214" priority="234" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B252">
-    <cfRule type="containsText" dxfId="188" priority="226" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="213" priority="229" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="227" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="212" priority="230" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="228" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="211" priority="231" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B251">
-    <cfRule type="containsText" dxfId="185" priority="223" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="210" priority="226" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="224" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="209" priority="227" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="225" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="208" priority="228" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B250">
-    <cfRule type="containsText" dxfId="182" priority="220" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="207" priority="223" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B250)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="221" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="206" priority="224" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B250)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="222" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="205" priority="225" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258">
-    <cfRule type="containsText" dxfId="179" priority="184" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="204" priority="187" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B258)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="185" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="203" priority="188" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B258)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="186" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="202" priority="189" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B247">
-    <cfRule type="containsText" dxfId="176" priority="211" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="201" priority="214" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="212" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="200" priority="215" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B247)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="213" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="199" priority="216" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B247)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B245">
-    <cfRule type="containsText" dxfId="173" priority="205" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="198" priority="208" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="206" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="197" priority="209" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="207" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="196" priority="210" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B244">
-    <cfRule type="containsText" dxfId="170" priority="202" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="195" priority="205" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="203" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="194" priority="206" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="204" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="193" priority="207" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B259">
-    <cfRule type="containsText" dxfId="167" priority="187" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="192" priority="190" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="188" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="191" priority="191" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B259)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="189" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="190" priority="192" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B256">
-    <cfRule type="containsText" dxfId="164" priority="181" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="189" priority="184" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="182" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="188" priority="185" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B256)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="187" priority="186" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B243">
-    <cfRule type="containsText" dxfId="161" priority="142" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="186" priority="145" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B243)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="143" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="185" priority="146" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B243)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="144" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="184" priority="147" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B243)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257">
-    <cfRule type="containsText" dxfId="158" priority="178" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="183" priority="181" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="179" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B257)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="180" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B255">
-    <cfRule type="containsText" dxfId="155" priority="175" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="180" priority="178" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B255)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="176" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="179" priority="179" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B255)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="177" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="178" priority="180" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B254">
-    <cfRule type="containsText" dxfId="152" priority="172" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="177" priority="175" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B254)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="173" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="176" priority="176" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B254)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="174" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="175" priority="177" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B248">
-    <cfRule type="containsText" dxfId="149" priority="169" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="174" priority="172" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="170" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="173" priority="173" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B248)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="171" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B248)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B249">
-    <cfRule type="containsText" dxfId="146" priority="166" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="171" priority="169" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="167" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B249)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="168" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B249)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B246">
-    <cfRule type="containsText" dxfId="143" priority="163" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="168" priority="166" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="164" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="167" priority="167" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B246)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="165" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="166" priority="168" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B246)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234">
-    <cfRule type="containsText" dxfId="140" priority="160" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="165" priority="163" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="161" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="164" priority="164" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="162" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="163" priority="165" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="containsText" dxfId="137" priority="157" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="162" priority="160" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B233)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="158" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="161" priority="161" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B233)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="159" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="160" priority="162" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B233)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B237">
-    <cfRule type="containsText" dxfId="134" priority="148" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="159" priority="151" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="149" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="158" priority="152" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="150" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="157" priority="153" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B238">
-    <cfRule type="containsText" dxfId="131" priority="151" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="156" priority="154" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="152" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="155" priority="155" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="153" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="154" priority="156" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B239:B242">
-    <cfRule type="containsText" dxfId="128" priority="145" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="153" priority="148" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="146" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="152" priority="149" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B239)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="147" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="151" priority="150" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H285 H311:H317">
-    <cfRule type="cellIs" dxfId="125" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="140" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="141" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="142" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H288">
-    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="137" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="138" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="139" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H269:H279">
-    <cfRule type="cellIs" dxfId="119" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="134" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="135" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="136" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H301:H307">
-    <cfRule type="cellIs" dxfId="116" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="131" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="132" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="133" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H292:H299">
-    <cfRule type="cellIs" dxfId="113" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="110" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="111" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="112" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282:H284">
-    <cfRule type="cellIs" dxfId="110" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="128" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="129" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="130" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H286:H287">
-    <cfRule type="cellIs" dxfId="107" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="125" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="126" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="127" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H289">
-    <cfRule type="cellIs" dxfId="104" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="122" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="123" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="124" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280:H281">
-    <cfRule type="cellIs" dxfId="101" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="119" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="120" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="121" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H291">
-    <cfRule type="cellIs" dxfId="98" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="116" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="117" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="118" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H290">
-    <cfRule type="cellIs" dxfId="95" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="113" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="114" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="115" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H300">
-    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H326:H330">
-    <cfRule type="cellIs" dxfId="89" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="98" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="99" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="100" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H323:H325">
-    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="101" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="102" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="103" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H308:H310">
-    <cfRule type="cellIs" dxfId="83" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="104" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H318:H322">
-    <cfRule type="cellIs" dxfId="80" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="95" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="96" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="97" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B323:B330">
-    <cfRule type="containsText" dxfId="77" priority="86" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="102" priority="89" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B323)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="87" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="101" priority="90" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B323)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="88" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="100" priority="91" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B323)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B269 B308:B324 B271:B300">
-    <cfRule type="containsText" dxfId="74" priority="80" operator="containsText" text="Docs">
-      <formula>NOT(ISERROR(SEARCH("Docs",B269)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="81" operator="containsText" text="Back-end">
-      <formula>NOT(ISERROR(SEARCH("Back-end",B269)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="82" operator="containsText" text="Front-end">
-      <formula>NOT(ISERROR(SEARCH("Front-end",B269)))</formula>
+  <conditionalFormatting sqref="B308:B324 B271:B300">
+    <cfRule type="containsText" dxfId="99" priority="83" operator="containsText" text="Docs">
+      <formula>NOT(ISERROR(SEARCH("Docs",B271)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="84" operator="containsText" text="Back-end">
+      <formula>NOT(ISERROR(SEARCH("Back-end",B271)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="85" operator="containsText" text="Front-end">
+      <formula>NOT(ISERROR(SEARCH("Front-end",B271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H331:J331">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="80" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="81" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="82" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F331">
-    <cfRule type="iconSet" priority="75">
+    <cfRule type="iconSet" priority="78">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="76">
+    <cfRule type="iconSet" priority="79">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19504,124 +19534,124 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B332:B364">
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="93" priority="75" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B332)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="92" priority="76" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B332)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="74" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="91" priority="77" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B332)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B304:B307">
-    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="90" priority="72" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="70" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="89" priority="73" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B304)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="71" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="88" priority="74" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B301:B303">
-    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="87" priority="69" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B301)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="68" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="85" priority="71" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B301)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H332:H338 H346:H349 H352:H364">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="66" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="67" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="68" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H339:H345">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="64" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="65" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H350">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="60" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="61" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="62" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H351">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="57" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="58" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H352">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="54" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="55" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="56" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H353:H361">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="52" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="53" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H365:J365">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="48" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="49" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="50" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F365">
-    <cfRule type="iconSet" priority="43">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19630,135 +19660,135 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B367">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="63" priority="43" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="62" priority="44" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B367)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="61" priority="45" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B367)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B366">
-    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="59" priority="14" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B366)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B366)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B368">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="57" priority="40" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B368)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="56" priority="41" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B368)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="55" priority="42" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B368)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B369">
-    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="54" priority="37" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B369)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="53" priority="38" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B369)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="52" priority="39" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B369)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B372:B375">
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="51" priority="34" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B372)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="50" priority="35" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B372)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="49" priority="36" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B372)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B370">
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="48" priority="31" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B370)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="47" priority="32" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B370)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="46" priority="33" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B370)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B371">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="45" priority="28" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B371)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B371)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="43" priority="30" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B371)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B376:B381 B399:B403">
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="24" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B373:B375">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="39" priority="22" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B373)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B373)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="37" priority="24" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B373)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B374">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B374)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B375">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="33" priority="16" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B375)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="31" priority="18" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B375)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F269:F330 F332:F364 F366:F403">
-    <cfRule type="iconSet" priority="585">
+    <cfRule type="iconSet" priority="588">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
       </iconSet>
     </cfRule>
-    <cfRule type="iconSet" priority="586">
+    <cfRule type="iconSet" priority="589">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -19767,25 +19797,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H366:H403">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"Média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"Alta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B270">
+    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="Docs">
+      <formula>NOT(ISERROR(SEARCH("Docs",B270)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Back-end">
+      <formula>NOT(ISERROR(SEARCH("Back-end",B270)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="Front-end">
+      <formula>NOT(ISERROR(SEARCH("Front-end",B270)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B269">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Docs">
-      <formula>NOT(ISERROR(SEARCH("Docs",B270)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Docs",B269)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Back-end">
-      <formula>NOT(ISERROR(SEARCH("Back-end",B270)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Back-end",B269)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Front-end">
-      <formula>NOT(ISERROR(SEARCH("Front-end",B270)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Front-end",B269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">

--- a/docs/Sprint Backlog.xlsx
+++ b/docs/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUÍS PEREIRA\GitHub\picand-go\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A0F22-48D3-45F3-AF49-E2089C00B421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39DFB5-7A5A-4BF3-BB84-CE9F694D6A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-120" windowWidth="19740" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2752,36 +2752,6 @@
   <dxfs count="355">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639AF2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBE5BE3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDB6B46"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3226,6 +3196,36 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639AF2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBE5BE3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDB6B46"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6621,19 +6621,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1198A39D-FAF6-4CC2-BC9B-BD1DFBB184C3}" name="Tabela_Requisitos" displayName="Tabela_Requisitos" ref="A2:J403" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1198A39D-FAF6-4CC2-BC9B-BD1DFBB184C3}" name="Tabela_Requisitos" displayName="Tabela_Requisitos" ref="A2:J403" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:J403" xr:uid="{FA7D6100-5CD1-494D-A60D-8E892EAEC05C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3FC58B53-8DA1-4447-BCED-3625FD40251E}" name="ID da Tarefa" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{1FECF677-DAA3-4088-BB5D-F7B8E4CC16B8}" name="Grupo" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{BD681F8D-38C2-42FE-BF1A-A787EC294115}" name="Requisito" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{BFBE8AC3-C050-4F78-8B7C-E36215B1671A}" name="Tarefa" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{61958D70-D070-4306-AFEA-16B3946C31DD}" name="Módulo" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{47565725-4927-48A7-90AA-0A8734EA4A8A}" name="Status" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{32A88ECC-C6F1-4077-B4ED-D92962146243}" name="Responsável" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1E911A97-3917-4ACE-B36D-84BA008FE615}" name="Prioridade" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{B4F2E4B0-1304-4B10-B312-0973D7A03289}" name="Horas" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B5CDF426-D23F-4C32-8CD1-73ACEEE98C09}" name="Data" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3FC58B53-8DA1-4447-BCED-3625FD40251E}" name="ID da Tarefa" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1FECF677-DAA3-4088-BB5D-F7B8E4CC16B8}" name="Grupo" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{BD681F8D-38C2-42FE-BF1A-A787EC294115}" name="Requisito" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{BFBE8AC3-C050-4F78-8B7C-E36215B1671A}" name="Tarefa" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{61958D70-D070-4306-AFEA-16B3946C31DD}" name="Módulo" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{47565725-4927-48A7-90AA-0A8734EA4A8A}" name="Status" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{32A88ECC-C6F1-4077-B4ED-D92962146243}" name="Responsável" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1E911A97-3917-4ACE-B36D-84BA008FE615}" name="Prioridade" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B4F2E4B0-1304-4B10-B312-0973D7A03289}" name="Horas" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{B5CDF426-D23F-4C32-8CD1-73ACEEE98C09}" name="Data" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6938,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925233BC-DEF4-4153-A45F-C1645D7758F5}">
   <dimension ref="A1:J407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19819,13 +19819,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B269">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Docs">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="Docs">
       <formula>NOT(ISERROR(SEARCH("Docs",B269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Back-end">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Back-end">
       <formula>NOT(ISERROR(SEARCH("Back-end",B269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Front-end">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="Front-end">
       <formula>NOT(ISERROR(SEARCH("Front-end",B269)))</formula>
     </cfRule>
   </conditionalFormatting>
